--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/60/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/60/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.3061306130613061</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>514.5145145145145</v>
+        <v>764.8764876487649</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04904904904904905</v>
+        <v>0.03117311731173118</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6316316316316316</v>
+        <v>0.4615461546154616</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1395.395395395396</v>
+        <v>932.8532853285329</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>270.2702702702703</v>
+        <v>211.4311431143114</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.0870870870871</v>
+        <v>252.2736273627362</v>
       </c>
     </row>
   </sheetData>
